--- a/ML_outputs/1/outputslowlight_tomato/KMeansSegmentation/lowlight_tomato_metrics.xlsx
+++ b/ML_outputs/1/outputslowlight_tomato/KMeansSegmentation/lowlight_tomato_metrics.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\UrcaDLML\ML_outputs\1\outputslowlight_tomato\KMeansSegmentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72FFB66-6C37-45F2-A451-C8BC90E3F0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Disease Type</t>
+  </si>
+  <si>
+    <t>Train IoU</t>
+  </si>
+  <si>
+    <t>Validation IoU</t>
+  </si>
+  <si>
+    <t>Train Accuracy</t>
+  </si>
+  <si>
+    <t>Validation Accuracy</t>
+  </si>
+  <si>
+    <t>Tomato_Septoria_Leaf_Spot</t>
+  </si>
+  <si>
+    <t>Tomato_Bacterial_Spot</t>
+  </si>
+  <si>
+    <t>Tomato_Early_Blight</t>
+  </si>
+  <si>
+    <t>Tomato_Target_Spot</t>
+  </si>
+  <si>
+    <t>Tomato_Spider_Mites</t>
+  </si>
+  <si>
+    <t>Tomato_Yellow_Leaf_Curl_Virus</t>
+  </si>
+  <si>
+    <t>Tomato_Leaf_Mold</t>
+  </si>
+  <si>
+    <t>Tomato_Late_Blight</t>
+  </si>
+  <si>
+    <t>Tomato_Healthy</t>
+  </si>
+  <si>
+    <t>Tomato_Mosaic_Virus</t>
+  </si>
+  <si>
+    <t>All_Classes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,253 +429,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Disease Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Train IoU</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Validation IoU</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Train Accuracy</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Validation Accuracy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Tomato_Septoria_Leaf_Spot</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.08365712316162816</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.04570304425611382</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6470672607421875</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8.3657123161628155E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.5703044256113823E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.64706726074218746</v>
+      </c>
+      <c r="E2">
         <v>0.5914154052734375</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tomato_Bacterial_Spot</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.003683499159021736</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.00265553330777205</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4707881927490234</v>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3.6834991590217361E-3</v>
+      </c>
+      <c r="C3">
+        <v>2.6555333077720499E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.47078819274902339</v>
+      </c>
+      <c r="E3">
         <v>0.46417236328125</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Tomato_Early_Blight</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.01088227163468988</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.005712576792846861</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3912502288818359</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4013763427734375</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tomato_Target_Spot</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.009250717033003343</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.008154373205317251</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4281074523925781</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4539703369140625</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tomato_Spider_Mites</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.06836118557863353</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.04956193969030155</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6311962127685546</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6014007568359375</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tomato_Yellow_Leaf_Curl_Virus</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2866133844178725</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2724546301319385</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7028156280517578</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.6746261596679688</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Tomato_Leaf_Mold</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1612917993174972</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.0882271634689879E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.7125767928468607E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.39125022888183592</v>
+      </c>
+      <c r="E4">
+        <v>0.40137634277343748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>9.2507170330033434E-3</v>
+      </c>
+      <c r="C5">
+        <v>8.1543732053172505E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.42810745239257808</v>
+      </c>
+      <c r="E5">
+        <v>0.45397033691406252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>6.8361185578633535E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.9561939690301551E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.63119621276855464</v>
+      </c>
+      <c r="E6">
+        <v>0.60140075683593752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.28661338441787249</v>
+      </c>
+      <c r="C7">
+        <v>0.27245463013193849</v>
+      </c>
+      <c r="D7">
+        <v>0.70281562805175779</v>
+      </c>
+      <c r="E7">
+        <v>0.67462615966796879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.16129179931749721</v>
+      </c>
+      <c r="C8">
         <v>0.1679281965699376</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.6785125732421875</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.7002517700195312</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Tomato_Late_Blight</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0548388123146628</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04085314091680815</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="E8">
+        <v>0.70025177001953121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>5.4838812314662803E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.0853140916808153E-2</v>
+      </c>
+      <c r="D9">
         <v>0.4334095001220703</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.4207183837890625</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Tomato_Healthy</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E9">
+        <v>0.42071838378906251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.6509220123291015</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6061386108398438</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Tomato_Mosaic_Virus</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.006915544046774973</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.007185314124366297</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="D10">
+        <v>0.65092201232910152</v>
+      </c>
+      <c r="E10">
+        <v>0.60613861083984377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>6.9155440467749728E-3</v>
+      </c>
+      <c r="C11">
+        <v>7.1853141243662967E-3</v>
+      </c>
+      <c r="D11">
         <v>0.262664794921875</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.2445785522460938</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>All_Classes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="E11">
+        <v>0.24457855224609379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>0.128231092689332</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.128231092689332</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.6146298828125</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6146298828125</v>
+      <c r="D12">
+        <v>0.61462988281249997</v>
+      </c>
+      <c r="E12">
+        <v>0.61462988281249997</v>
       </c>
     </row>
   </sheetData>
